--- a/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2040.xlsx
+++ b/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2040.xlsx
@@ -830,58 +830,58 @@
         <v>2101</v>
       </c>
       <c r="B7" t="n">
-        <v>2202.52</v>
+        <v>2202.1</v>
       </c>
       <c r="C7" t="n">
-        <v>10871.26</v>
+        <v>10869.33</v>
       </c>
       <c r="D7" t="n">
-        <v>1183.998613861386</v>
+        <v>1183.788415841584</v>
       </c>
       <c r="E7" t="n">
-        <v>1183.998613861386</v>
+        <v>1183.788415841584</v>
       </c>
       <c r="F7" t="n">
-        <v>1076.362376237623</v>
+        <v>1076.171287128713</v>
       </c>
       <c r="G7" t="n">
-        <v>968.7261386138612</v>
+        <v>968.5541584158414</v>
       </c>
       <c r="H7" t="n">
-        <v>861.0899009900988</v>
+        <v>860.9370297029701</v>
       </c>
       <c r="I7" t="n">
-        <v>753.4536633663365</v>
+        <v>753.319900990099</v>
       </c>
       <c r="J7" t="n">
-        <v>753.4536633663365</v>
+        <v>753.319900990099</v>
       </c>
       <c r="K7" t="n">
-        <v>645.8174257425741</v>
+        <v>645.7027722772275</v>
       </c>
       <c r="L7" t="n">
-        <v>538.1811881188117</v>
+        <v>538.0856435643564</v>
       </c>
       <c r="M7" t="n">
-        <v>1183.998613861386</v>
+        <v>1183.788415841584</v>
       </c>
       <c r="N7" t="n">
-        <v>430.5449504950494</v>
+        <v>430.4685148514851</v>
       </c>
       <c r="O7" t="n">
-        <v>322.908712871287</v>
+        <v>322.8513861386137</v>
       </c>
       <c r="P7" t="n">
-        <v>322.908712871287</v>
+        <v>322.8513861386137</v>
       </c>
       <c r="Q7" t="n">
-        <v>215.2724752475247</v>
+        <v>215.2342574257425</v>
       </c>
       <c r="R7" t="n">
-        <v>215.2724752475247</v>
+        <v>215.2342574257425</v>
       </c>
       <c r="S7" t="n">
-        <v>215.2724752475247</v>
+        <v>215.2342574257425</v>
       </c>
     </row>
     <row r="8">
@@ -889,58 +889,58 @@
         <v>3605</v>
       </c>
       <c r="B8" t="n">
-        <v>596.03</v>
+        <v>595.97</v>
       </c>
       <c r="C8" t="n">
-        <v>2403.409999999999</v>
+        <v>2403.15</v>
       </c>
       <c r="D8" t="n">
-        <v>237.9613861386138</v>
+        <v>237.9356435643564</v>
       </c>
       <c r="E8" t="n">
-        <v>214.1652475247524</v>
+        <v>214.1420792079207</v>
       </c>
       <c r="F8" t="n">
-        <v>214.1652475247524</v>
+        <v>214.1420792079207</v>
       </c>
       <c r="G8" t="n">
-        <v>190.369108910891</v>
+        <v>190.3485148514851</v>
       </c>
       <c r="H8" t="n">
-        <v>166.5729702970297</v>
+        <v>166.5549504950495</v>
       </c>
       <c r="I8" t="n">
-        <v>166.5729702970297</v>
+        <v>166.5549504950495</v>
       </c>
       <c r="J8" t="n">
-        <v>166.5729702970297</v>
+        <v>166.5549504950495</v>
       </c>
       <c r="K8" t="n">
-        <v>166.5729702970297</v>
+        <v>166.5549504950495</v>
       </c>
       <c r="L8" t="n">
-        <v>118.9806930693069</v>
+        <v>118.9678217821782</v>
       </c>
       <c r="M8" t="n">
-        <v>237.9613861386138</v>
+        <v>237.9356435643564</v>
       </c>
       <c r="N8" t="n">
-        <v>95.18455445544552</v>
+        <v>95.17425742574257</v>
       </c>
       <c r="O8" t="n">
-        <v>71.38841584158413</v>
+        <v>71.38069306930691</v>
       </c>
       <c r="P8" t="n">
-        <v>95.18455445544552</v>
+        <v>95.17425742574257</v>
       </c>
       <c r="Q8" t="n">
-        <v>95.18455445544552</v>
+        <v>95.17425742574257</v>
       </c>
       <c r="R8" t="n">
-        <v>71.38841584158413</v>
+        <v>71.38069306930691</v>
       </c>
       <c r="S8" t="n">
-        <v>95.18455445544552</v>
+        <v>95.17425742574257</v>
       </c>
     </row>
     <row r="9">
@@ -1007,58 +1007,58 @@
         <v>2404</v>
       </c>
       <c r="B10" t="n">
-        <v>1907.45</v>
+        <v>1906.93</v>
       </c>
       <c r="C10" t="n">
-        <v>8512.869999999999</v>
+        <v>8510.499999999998</v>
       </c>
       <c r="D10" t="n">
-        <v>927.1442574257425</v>
+        <v>926.8861386138611</v>
       </c>
       <c r="E10" t="n">
-        <v>842.858415841584</v>
+        <v>842.6237623762374</v>
       </c>
       <c r="F10" t="n">
-        <v>842.858415841584</v>
+        <v>842.6237623762374</v>
       </c>
       <c r="G10" t="n">
-        <v>758.5725742574257</v>
+        <v>758.3613861386137</v>
       </c>
       <c r="H10" t="n">
-        <v>674.2867326732672</v>
+        <v>674.09900990099</v>
       </c>
       <c r="I10" t="n">
-        <v>590.0008910891089</v>
+        <v>589.8366336633662</v>
       </c>
       <c r="J10" t="n">
-        <v>590.0008910891089</v>
+        <v>589.8366336633662</v>
       </c>
       <c r="K10" t="n">
-        <v>505.7150495049504</v>
+        <v>505.5742574257424</v>
       </c>
       <c r="L10" t="n">
-        <v>421.429207920792</v>
+        <v>421.3118811881187</v>
       </c>
       <c r="M10" t="n">
-        <v>927.1442574257425</v>
+        <v>926.8861386138611</v>
       </c>
       <c r="N10" t="n">
-        <v>337.1433663366336</v>
+        <v>337.049504950495</v>
       </c>
       <c r="O10" t="n">
-        <v>252.8575247524752</v>
+        <v>252.7871287128712</v>
       </c>
       <c r="P10" t="n">
-        <v>252.8575247524752</v>
+        <v>252.7871287128712</v>
       </c>
       <c r="Q10" t="n">
-        <v>252.8575247524752</v>
+        <v>252.7871287128712</v>
       </c>
       <c r="R10" t="n">
-        <v>168.5716831683168</v>
+        <v>168.5247524752475</v>
       </c>
       <c r="S10" t="n">
-        <v>168.5716831683168</v>
+        <v>168.5247524752475</v>
       </c>
     </row>
     <row r="11">
@@ -1125,58 +1125,58 @@
         <v>209</v>
       </c>
       <c r="B12" t="n">
-        <v>165.72</v>
+        <v>165.65</v>
       </c>
       <c r="C12" t="n">
-        <v>771.4999999999999</v>
+        <v>771.1699999999998</v>
       </c>
       <c r="D12" t="n">
-        <v>69.43499999999999</v>
+        <v>69.40529999999998</v>
       </c>
       <c r="E12" t="n">
-        <v>61.71999999999999</v>
+        <v>61.69359999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>61.71999999999999</v>
+        <v>61.69359999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>54.005</v>
+        <v>53.98189999999999</v>
       </c>
       <c r="H12" t="n">
-        <v>46.28999999999998</v>
+        <v>46.27019999999999</v>
       </c>
       <c r="I12" t="n">
-        <v>46.28999999999998</v>
+        <v>46.27019999999999</v>
       </c>
       <c r="J12" t="n">
-        <v>54.005</v>
+        <v>53.98189999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>46.28999999999998</v>
+        <v>46.27019999999999</v>
       </c>
       <c r="L12" t="n">
-        <v>46.28999999999998</v>
+        <v>46.27019999999999</v>
       </c>
       <c r="M12" t="n">
-        <v>61.71999999999999</v>
+        <v>61.69359999999999</v>
       </c>
       <c r="N12" t="n">
-        <v>46.28999999999998</v>
+        <v>46.27019999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>30.86</v>
+        <v>30.84679999999999</v>
       </c>
       <c r="P12" t="n">
-        <v>30.86</v>
+        <v>30.84679999999999</v>
       </c>
       <c r="Q12" t="n">
-        <v>30.86</v>
+        <v>30.84679999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>23.14499999999999</v>
+        <v>23.13509999999999</v>
       </c>
       <c r="S12" t="n">
-        <v>61.71999999999999</v>
+        <v>61.69359999999999</v>
       </c>
     </row>
     <row r="13">
@@ -1184,58 +1184,58 @@
         <v>206</v>
       </c>
       <c r="B13" t="n">
-        <v>176.8</v>
+        <v>176.78</v>
       </c>
       <c r="C13" t="n">
-        <v>841.2099999999998</v>
+        <v>841.0999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>75.70889999999999</v>
+        <v>75.69899999999998</v>
       </c>
       <c r="E13" t="n">
-        <v>67.29679999999999</v>
+        <v>67.288</v>
       </c>
       <c r="F13" t="n">
-        <v>67.29679999999999</v>
+        <v>67.288</v>
       </c>
       <c r="G13" t="n">
-        <v>58.8847</v>
+        <v>58.877</v>
       </c>
       <c r="H13" t="n">
-        <v>50.47259999999999</v>
+        <v>50.46599999999999</v>
       </c>
       <c r="I13" t="n">
-        <v>50.47259999999999</v>
+        <v>50.46599999999999</v>
       </c>
       <c r="J13" t="n">
-        <v>58.8847</v>
+        <v>58.877</v>
       </c>
       <c r="K13" t="n">
-        <v>50.47259999999999</v>
+        <v>50.46599999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>50.47259999999999</v>
+        <v>50.46599999999999</v>
       </c>
       <c r="M13" t="n">
-        <v>67.29679999999999</v>
+        <v>67.288</v>
       </c>
       <c r="N13" t="n">
-        <v>50.47259999999999</v>
+        <v>50.46599999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>33.6484</v>
+        <v>33.644</v>
       </c>
       <c r="P13" t="n">
-        <v>33.6484</v>
+        <v>33.644</v>
       </c>
       <c r="Q13" t="n">
-        <v>33.6484</v>
+        <v>33.644</v>
       </c>
       <c r="R13" t="n">
-        <v>25.23629999999999</v>
+        <v>25.23299999999999</v>
       </c>
       <c r="S13" t="n">
-        <v>67.29679999999999</v>
+        <v>67.288</v>
       </c>
     </row>
     <row r="14">
@@ -1243,58 +1243,58 @@
         <v>205</v>
       </c>
       <c r="B14" t="n">
-        <v>378.71</v>
+        <v>378.67</v>
       </c>
       <c r="C14" t="n">
-        <v>1803.89</v>
+        <v>1803.7</v>
       </c>
       <c r="D14" t="n">
-        <v>162.3501</v>
+        <v>162.333</v>
       </c>
       <c r="E14" t="n">
-        <v>144.3112</v>
+        <v>144.296</v>
       </c>
       <c r="F14" t="n">
-        <v>144.3112</v>
+        <v>144.296</v>
       </c>
       <c r="G14" t="n">
-        <v>126.2723</v>
+        <v>126.259</v>
       </c>
       <c r="H14" t="n">
-        <v>108.2334</v>
+        <v>108.222</v>
       </c>
       <c r="I14" t="n">
-        <v>108.2334</v>
+        <v>108.222</v>
       </c>
       <c r="J14" t="n">
-        <v>126.2723</v>
+        <v>126.259</v>
       </c>
       <c r="K14" t="n">
-        <v>108.2334</v>
+        <v>108.222</v>
       </c>
       <c r="L14" t="n">
-        <v>108.2334</v>
+        <v>108.222</v>
       </c>
       <c r="M14" t="n">
-        <v>144.3112</v>
+        <v>144.296</v>
       </c>
       <c r="N14" t="n">
-        <v>108.2334</v>
+        <v>108.222</v>
       </c>
       <c r="O14" t="n">
-        <v>72.15559999999999</v>
+        <v>72.148</v>
       </c>
       <c r="P14" t="n">
-        <v>72.15559999999999</v>
+        <v>72.148</v>
       </c>
       <c r="Q14" t="n">
-        <v>72.15559999999999</v>
+        <v>72.148</v>
       </c>
       <c r="R14" t="n">
-        <v>54.11669999999999</v>
+        <v>54.11099999999999</v>
       </c>
       <c r="S14" t="n">
-        <v>144.3112</v>
+        <v>144.296</v>
       </c>
     </row>
     <row r="15">
@@ -1302,58 +1302,58 @@
         <v>202</v>
       </c>
       <c r="B15" t="n">
-        <v>182.35</v>
+        <v>182.29</v>
       </c>
       <c r="C15" t="n">
-        <v>853.6599999999999</v>
+        <v>853.3599999999998</v>
       </c>
       <c r="D15" t="n">
-        <v>76.82939999999998</v>
+        <v>76.80239999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>68.29279999999999</v>
+        <v>68.26879999999998</v>
       </c>
       <c r="F15" t="n">
-        <v>68.29279999999999</v>
+        <v>68.26879999999998</v>
       </c>
       <c r="G15" t="n">
-        <v>59.75619999999999</v>
+        <v>59.73519999999999</v>
       </c>
       <c r="H15" t="n">
-        <v>51.21959999999999</v>
+        <v>51.20159999999998</v>
       </c>
       <c r="I15" t="n">
-        <v>51.21959999999999</v>
+        <v>51.20159999999998</v>
       </c>
       <c r="J15" t="n">
-        <v>59.75619999999999</v>
+        <v>59.73519999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>51.21959999999999</v>
+        <v>51.20159999999998</v>
       </c>
       <c r="L15" t="n">
-        <v>51.21959999999999</v>
+        <v>51.20159999999998</v>
       </c>
       <c r="M15" t="n">
-        <v>68.29279999999999</v>
+        <v>68.26879999999998</v>
       </c>
       <c r="N15" t="n">
-        <v>51.21959999999999</v>
+        <v>51.20159999999998</v>
       </c>
       <c r="O15" t="n">
-        <v>34.14639999999999</v>
+        <v>34.13439999999999</v>
       </c>
       <c r="P15" t="n">
-        <v>34.14639999999999</v>
+        <v>34.13439999999999</v>
       </c>
       <c r="Q15" t="n">
-        <v>34.14639999999999</v>
+        <v>34.13439999999999</v>
       </c>
       <c r="R15" t="n">
-        <v>25.60979999999999</v>
+        <v>25.60079999999999</v>
       </c>
       <c r="S15" t="n">
-        <v>68.29279999999999</v>
+        <v>68.26879999999998</v>
       </c>
     </row>
     <row r="16">
@@ -1479,58 +1479,58 @@
         <v>1303</v>
       </c>
       <c r="B18" t="n">
-        <v>749.7</v>
+        <v>749.55</v>
       </c>
       <c r="C18" t="n">
-        <v>3373.649999999999</v>
+        <v>3372.959999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>330.7499999999999</v>
+        <v>330.6823529411764</v>
       </c>
       <c r="E18" t="n">
-        <v>297.675</v>
+        <v>297.6141176470588</v>
       </c>
       <c r="F18" t="n">
-        <v>297.675</v>
+        <v>297.6141176470588</v>
       </c>
       <c r="G18" t="n">
-        <v>264.6</v>
+        <v>264.5458823529411</v>
       </c>
       <c r="H18" t="n">
-        <v>231.525</v>
+        <v>231.4776470588235</v>
       </c>
       <c r="I18" t="n">
-        <v>231.525</v>
+        <v>231.4776470588235</v>
       </c>
       <c r="J18" t="n">
-        <v>231.525</v>
+        <v>231.4776470588235</v>
       </c>
       <c r="K18" t="n">
-        <v>198.45</v>
+        <v>198.4094117647058</v>
       </c>
       <c r="L18" t="n">
-        <v>198.45</v>
+        <v>198.4094117647058</v>
       </c>
       <c r="M18" t="n">
-        <v>297.675</v>
+        <v>297.6141176470588</v>
       </c>
       <c r="N18" t="n">
-        <v>165.375</v>
+        <v>165.3411764705882</v>
       </c>
       <c r="O18" t="n">
-        <v>132.3</v>
+        <v>132.2729411764706</v>
       </c>
       <c r="P18" t="n">
-        <v>132.3</v>
+        <v>132.2729411764706</v>
       </c>
       <c r="Q18" t="n">
-        <v>99.22499999999998</v>
+        <v>99.20470588235291</v>
       </c>
       <c r="R18" t="n">
-        <v>99.22499999999998</v>
+        <v>99.20470588235291</v>
       </c>
       <c r="S18" t="n">
-        <v>165.375</v>
+        <v>165.3411764705882</v>
       </c>
     </row>
     <row r="19">
@@ -1597,58 +1597,58 @@
         <v>6505</v>
       </c>
       <c r="B20" t="n">
-        <v>2063.98</v>
+        <v>2063.8</v>
       </c>
       <c r="C20" t="n">
-        <v>9287.919999999998</v>
+        <v>9287.089999999998</v>
       </c>
       <c r="D20" t="n">
-        <v>928.7919999999998</v>
+        <v>928.7089999999998</v>
       </c>
       <c r="E20" t="n">
-        <v>835.9127999999998</v>
+        <v>835.8380999999998</v>
       </c>
       <c r="F20" t="n">
-        <v>835.9127999999998</v>
+        <v>835.8380999999998</v>
       </c>
       <c r="G20" t="n">
-        <v>743.0335999999999</v>
+        <v>742.9671999999999</v>
       </c>
       <c r="H20" t="n">
-        <v>650.1543999999999</v>
+        <v>650.0962999999999</v>
       </c>
       <c r="I20" t="n">
-        <v>650.1543999999999</v>
+        <v>650.0962999999999</v>
       </c>
       <c r="J20" t="n">
-        <v>650.1543999999999</v>
+        <v>650.0962999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>650.1543999999999</v>
+        <v>650.0962999999999</v>
       </c>
       <c r="L20" t="n">
-        <v>557.2751999999998</v>
+        <v>557.2253999999998</v>
       </c>
       <c r="M20" t="n">
-        <v>928.7919999999998</v>
+        <v>928.7089999999998</v>
       </c>
       <c r="N20" t="n">
-        <v>371.5167999999999</v>
+        <v>371.4836</v>
       </c>
       <c r="O20" t="n">
-        <v>371.5167999999999</v>
+        <v>371.4836</v>
       </c>
       <c r="P20" t="n">
-        <v>278.6375999999999</v>
+        <v>278.6126999999999</v>
       </c>
       <c r="Q20" t="n">
-        <v>278.6375999999999</v>
+        <v>278.6126999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>185.7584</v>
+        <v>185.7418</v>
       </c>
       <c r="S20" t="n">
-        <v>371.5167999999999</v>
+        <v>371.4836</v>
       </c>
     </row>
     <row r="21">
@@ -1973,58 +1973,58 @@
         <v>6605</v>
       </c>
       <c r="B28" t="n">
-        <v>393.96</v>
+        <v>393.87</v>
       </c>
       <c r="C28" t="n">
-        <v>1696.38</v>
+        <v>1695.98</v>
       </c>
       <c r="D28" t="n">
-        <v>169.638</v>
+        <v>169.598</v>
       </c>
       <c r="E28" t="n">
-        <v>152.6742</v>
+        <v>152.6382</v>
       </c>
       <c r="F28" t="n">
-        <v>152.6742</v>
+        <v>152.6382</v>
       </c>
       <c r="G28" t="n">
-        <v>135.7104</v>
+        <v>135.6784</v>
       </c>
       <c r="H28" t="n">
-        <v>118.7466</v>
+        <v>118.7186</v>
       </c>
       <c r="I28" t="n">
-        <v>118.7466</v>
+        <v>118.7186</v>
       </c>
       <c r="J28" t="n">
-        <v>118.7466</v>
+        <v>118.7186</v>
       </c>
       <c r="K28" t="n">
-        <v>101.7828</v>
+        <v>101.7588</v>
       </c>
       <c r="L28" t="n">
-        <v>101.7828</v>
+        <v>101.7588</v>
       </c>
       <c r="M28" t="n">
-        <v>169.638</v>
+        <v>169.598</v>
       </c>
       <c r="N28" t="n">
-        <v>67.8552</v>
+        <v>67.83919999999999</v>
       </c>
       <c r="O28" t="n">
-        <v>67.8552</v>
+        <v>67.83919999999999</v>
       </c>
       <c r="P28" t="n">
-        <v>67.8552</v>
+        <v>67.83919999999999</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.89139999999999</v>
+        <v>50.87939999999999</v>
       </c>
       <c r="R28" t="n">
-        <v>33.9276</v>
+        <v>33.9196</v>
       </c>
       <c r="S28" t="n">
-        <v>67.8552</v>
+        <v>67.83919999999999</v>
       </c>
     </row>
     <row r="29">
@@ -2032,58 +2032,58 @@
         <v>6606</v>
       </c>
       <c r="B29" t="n">
-        <v>1738.21</v>
+        <v>1738.19</v>
       </c>
       <c r="C29" t="n">
-        <v>7377.799999999999</v>
+        <v>7377.739999999998</v>
       </c>
       <c r="D29" t="n">
-        <v>737.7799999999999</v>
+        <v>737.7739999999998</v>
       </c>
       <c r="E29" t="n">
-        <v>664.0019999999998</v>
+        <v>663.9965999999998</v>
       </c>
       <c r="F29" t="n">
-        <v>664.0019999999998</v>
+        <v>663.9965999999998</v>
       </c>
       <c r="G29" t="n">
-        <v>590.2239999999999</v>
+        <v>590.2191999999999</v>
       </c>
       <c r="H29" t="n">
-        <v>516.4459999999999</v>
+        <v>516.4417999999999</v>
       </c>
       <c r="I29" t="n">
-        <v>516.4459999999999</v>
+        <v>516.4417999999999</v>
       </c>
       <c r="J29" t="n">
-        <v>516.4459999999999</v>
+        <v>516.4417999999999</v>
       </c>
       <c r="K29" t="n">
-        <v>442.6679999999999</v>
+        <v>442.6643999999999</v>
       </c>
       <c r="L29" t="n">
-        <v>442.6679999999999</v>
+        <v>442.6643999999999</v>
       </c>
       <c r="M29" t="n">
-        <v>737.7799999999999</v>
+        <v>737.7739999999998</v>
       </c>
       <c r="N29" t="n">
-        <v>295.112</v>
+        <v>295.1095999999999</v>
       </c>
       <c r="O29" t="n">
-        <v>295.112</v>
+        <v>295.1095999999999</v>
       </c>
       <c r="P29" t="n">
-        <v>295.112</v>
+        <v>295.1095999999999</v>
       </c>
       <c r="Q29" t="n">
-        <v>221.3339999999999</v>
+        <v>221.3321999999999</v>
       </c>
       <c r="R29" t="n">
-        <v>147.556</v>
+        <v>147.5548</v>
       </c>
       <c r="S29" t="n">
-        <v>295.112</v>
+        <v>295.1095999999999</v>
       </c>
     </row>
     <row r="30">
@@ -2091,58 +2091,58 @@
         <v>6507</v>
       </c>
       <c r="B30" t="n">
-        <v>1403.21</v>
+        <v>1403.06</v>
       </c>
       <c r="C30" t="n">
-        <v>5995.129999999998</v>
+        <v>5994.459999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>599.5129999999999</v>
+        <v>599.4459999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>539.5616999999999</v>
+        <v>539.5013999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>539.5616999999999</v>
+        <v>539.5013999999999</v>
       </c>
       <c r="G30" t="n">
-        <v>479.6103999999999</v>
+        <v>479.5568</v>
       </c>
       <c r="H30" t="n">
-        <v>419.6591</v>
+        <v>419.6122</v>
       </c>
       <c r="I30" t="n">
-        <v>419.6591</v>
+        <v>419.6122</v>
       </c>
       <c r="J30" t="n">
-        <v>419.6591</v>
+        <v>419.6122</v>
       </c>
       <c r="K30" t="n">
-        <v>359.7077999999999</v>
+        <v>359.6675999999999</v>
       </c>
       <c r="L30" t="n">
-        <v>359.7077999999999</v>
+        <v>359.6675999999999</v>
       </c>
       <c r="M30" t="n">
-        <v>599.5129999999999</v>
+        <v>599.4459999999999</v>
       </c>
       <c r="N30" t="n">
-        <v>239.8052</v>
+        <v>239.7784</v>
       </c>
       <c r="O30" t="n">
-        <v>239.8052</v>
+        <v>239.7784</v>
       </c>
       <c r="P30" t="n">
-        <v>239.8052</v>
+        <v>239.7784</v>
       </c>
       <c r="Q30" t="n">
-        <v>179.8539</v>
+        <v>179.8337999999999</v>
       </c>
       <c r="R30" t="n">
-        <v>119.9026</v>
+        <v>119.8892</v>
       </c>
       <c r="S30" t="n">
-        <v>239.8052</v>
+        <v>239.7784</v>
       </c>
     </row>
     <row r="31">
@@ -2150,58 +2150,58 @@
         <v>6508</v>
       </c>
       <c r="B31" t="n">
-        <v>1844.64</v>
+        <v>1844.57</v>
       </c>
       <c r="C31" t="n">
-        <v>7846.299999999999</v>
+        <v>7845.969999999998</v>
       </c>
       <c r="D31" t="n">
-        <v>784.6299999999999</v>
+        <v>784.5969999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>706.1669999999999</v>
+        <v>706.1372999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>706.1669999999999</v>
+        <v>706.1372999999999</v>
       </c>
       <c r="G31" t="n">
-        <v>627.704</v>
+        <v>627.6775999999999</v>
       </c>
       <c r="H31" t="n">
-        <v>549.241</v>
+        <v>549.2179</v>
       </c>
       <c r="I31" t="n">
-        <v>549.241</v>
+        <v>549.2179</v>
       </c>
       <c r="J31" t="n">
-        <v>549.241</v>
+        <v>549.2179</v>
       </c>
       <c r="K31" t="n">
-        <v>470.7779999999999</v>
+        <v>470.7581999999999</v>
       </c>
       <c r="L31" t="n">
-        <v>470.7779999999999</v>
+        <v>470.7581999999999</v>
       </c>
       <c r="M31" t="n">
-        <v>784.6299999999999</v>
+        <v>784.5969999999999</v>
       </c>
       <c r="N31" t="n">
-        <v>313.852</v>
+        <v>313.8387999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>313.852</v>
+        <v>313.8387999999999</v>
       </c>
       <c r="P31" t="n">
-        <v>313.852</v>
+        <v>313.8387999999999</v>
       </c>
       <c r="Q31" t="n">
-        <v>235.389</v>
+        <v>235.3790999999999</v>
       </c>
       <c r="R31" t="n">
-        <v>156.926</v>
+        <v>156.9194</v>
       </c>
       <c r="S31" t="n">
-        <v>313.852</v>
+        <v>313.8387999999999</v>
       </c>
     </row>
     <row r="32">
@@ -2209,58 +2209,58 @@
         <v>6510</v>
       </c>
       <c r="B32" t="n">
-        <v>624.45</v>
+        <v>624.36</v>
       </c>
       <c r="C32" t="n">
-        <v>2674.01</v>
+        <v>2673.61</v>
       </c>
       <c r="D32" t="n">
-        <v>267.401</v>
+        <v>267.3609999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>240.6609</v>
+        <v>240.6249</v>
       </c>
       <c r="F32" t="n">
-        <v>240.6609</v>
+        <v>240.6249</v>
       </c>
       <c r="G32" t="n">
-        <v>213.9208</v>
+        <v>213.8888</v>
       </c>
       <c r="H32" t="n">
-        <v>187.1807</v>
+        <v>187.1527</v>
       </c>
       <c r="I32" t="n">
-        <v>187.1807</v>
+        <v>187.1527</v>
       </c>
       <c r="J32" t="n">
-        <v>187.1807</v>
+        <v>187.1527</v>
       </c>
       <c r="K32" t="n">
-        <v>160.4406</v>
+        <v>160.4166</v>
       </c>
       <c r="L32" t="n">
-        <v>160.4406</v>
+        <v>160.4166</v>
       </c>
       <c r="M32" t="n">
-        <v>267.401</v>
+        <v>267.3609999999999</v>
       </c>
       <c r="N32" t="n">
-        <v>106.9604</v>
+        <v>106.9444</v>
       </c>
       <c r="O32" t="n">
-        <v>106.9604</v>
+        <v>106.9444</v>
       </c>
       <c r="P32" t="n">
-        <v>106.9604</v>
+        <v>106.9444</v>
       </c>
       <c r="Q32" t="n">
-        <v>80.22029999999998</v>
+        <v>80.20829999999998</v>
       </c>
       <c r="R32" t="n">
-        <v>53.4802</v>
+        <v>53.47219999999999</v>
       </c>
       <c r="S32" t="n">
-        <v>106.9604</v>
+        <v>106.9444</v>
       </c>
     </row>
     <row r="33">
@@ -2327,58 +2327,58 @@
         <v>6403</v>
       </c>
       <c r="B34" t="n">
-        <v>2089.76</v>
+        <v>2089.68</v>
       </c>
       <c r="C34" t="n">
-        <v>9403.929999999997</v>
+        <v>9403.559999999998</v>
       </c>
       <c r="D34" t="n">
-        <v>940.3929999999998</v>
+        <v>940.3559999999998</v>
       </c>
       <c r="E34" t="n">
-        <v>846.3536999999999</v>
+        <v>846.3203999999998</v>
       </c>
       <c r="F34" t="n">
-        <v>846.3536999999999</v>
+        <v>846.3203999999998</v>
       </c>
       <c r="G34" t="n">
-        <v>752.3143999999999</v>
+        <v>752.2847999999998</v>
       </c>
       <c r="H34" t="n">
-        <v>658.2751</v>
+        <v>658.2491999999999</v>
       </c>
       <c r="I34" t="n">
-        <v>658.2751</v>
+        <v>658.2491999999999</v>
       </c>
       <c r="J34" t="n">
-        <v>658.2751</v>
+        <v>658.2491999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>658.2751</v>
+        <v>658.2491999999999</v>
       </c>
       <c r="L34" t="n">
-        <v>564.2357999999998</v>
+        <v>564.2135999999998</v>
       </c>
       <c r="M34" t="n">
-        <v>940.3929999999998</v>
+        <v>940.3559999999998</v>
       </c>
       <c r="N34" t="n">
-        <v>376.1571999999999</v>
+        <v>376.1423999999999</v>
       </c>
       <c r="O34" t="n">
-        <v>376.1571999999999</v>
+        <v>376.1423999999999</v>
       </c>
       <c r="P34" t="n">
-        <v>282.1178999999999</v>
+        <v>282.1067999999999</v>
       </c>
       <c r="Q34" t="n">
-        <v>282.1178999999999</v>
+        <v>282.1067999999999</v>
       </c>
       <c r="R34" t="n">
-        <v>188.0786</v>
+        <v>188.0711999999999</v>
       </c>
       <c r="S34" t="n">
-        <v>376.1571999999999</v>
+        <v>376.1423999999999</v>
       </c>
     </row>
     <row r="35">
@@ -2472,58 +2472,58 @@
         <v>1305</v>
       </c>
       <c r="B37" t="n">
-        <v>14.76</v>
+        <v>14.74</v>
       </c>
       <c r="C37" t="n">
-        <v>66.40999999999998</v>
+        <v>66.34999999999998</v>
       </c>
       <c r="D37" t="n">
-        <v>6.510784313725489</v>
+        <v>6.504901960784312</v>
       </c>
       <c r="E37" t="n">
-        <v>5.859705882352939</v>
+        <v>5.854411764705881</v>
       </c>
       <c r="F37" t="n">
-        <v>5.859705882352939</v>
+        <v>5.854411764705881</v>
       </c>
       <c r="G37" t="n">
-        <v>5.208627450980391</v>
+        <v>5.203921568627449</v>
       </c>
       <c r="H37" t="n">
-        <v>4.557549019607842</v>
+        <v>4.553431372549019</v>
       </c>
       <c r="I37" t="n">
-        <v>4.557549019607842</v>
+        <v>4.553431372549019</v>
       </c>
       <c r="J37" t="n">
-        <v>4.557549019607842</v>
+        <v>4.553431372549019</v>
       </c>
       <c r="K37" t="n">
-        <v>3.906470588235293</v>
+        <v>3.902941176470587</v>
       </c>
       <c r="L37" t="n">
-        <v>3.906470588235293</v>
+        <v>3.902941176470587</v>
       </c>
       <c r="M37" t="n">
-        <v>5.859705882352939</v>
+        <v>5.854411764705881</v>
       </c>
       <c r="N37" t="n">
-        <v>3.255392156862745</v>
+        <v>3.252450980392156</v>
       </c>
       <c r="O37" t="n">
-        <v>2.604313725490195</v>
+        <v>2.601960784313725</v>
       </c>
       <c r="P37" t="n">
-        <v>2.604313725490195</v>
+        <v>2.601960784313725</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.953235294117647</v>
+        <v>1.951470588235293</v>
       </c>
       <c r="R37" t="n">
-        <v>1.953235294117647</v>
+        <v>1.951470588235293</v>
       </c>
       <c r="S37" t="n">
-        <v>3.255392156862745</v>
+        <v>3.252450980392156</v>
       </c>
     </row>
     <row r="38">
@@ -2590,58 +2590,58 @@
         <v>1302</v>
       </c>
       <c r="B39" t="n">
-        <v>874.79</v>
+        <v>874.73</v>
       </c>
       <c r="C39" t="n">
-        <v>3936.539999999999</v>
+        <v>3936.29</v>
       </c>
       <c r="D39" t="n">
-        <v>385.935294117647</v>
+        <v>385.9107843137254</v>
       </c>
       <c r="E39" t="n">
-        <v>347.3417647058823</v>
+        <v>347.3197058823529</v>
       </c>
       <c r="F39" t="n">
-        <v>347.3417647058823</v>
+        <v>347.3197058823529</v>
       </c>
       <c r="G39" t="n">
-        <v>308.7482352941176</v>
+        <v>308.7286274509804</v>
       </c>
       <c r="H39" t="n">
-        <v>270.1547058823529</v>
+        <v>270.1375490196078</v>
       </c>
       <c r="I39" t="n">
-        <v>270.1547058823529</v>
+        <v>270.1375490196078</v>
       </c>
       <c r="J39" t="n">
-        <v>270.1547058823529</v>
+        <v>270.1375490196078</v>
       </c>
       <c r="K39" t="n">
-        <v>231.5611764705882</v>
+        <v>231.5464705882352</v>
       </c>
       <c r="L39" t="n">
-        <v>231.5611764705882</v>
+        <v>231.5464705882352</v>
       </c>
       <c r="M39" t="n">
-        <v>347.3417647058823</v>
+        <v>347.3197058823529</v>
       </c>
       <c r="N39" t="n">
-        <v>192.9676470588235</v>
+        <v>192.9553921568627</v>
       </c>
       <c r="O39" t="n">
-        <v>154.3741176470588</v>
+        <v>154.3643137254902</v>
       </c>
       <c r="P39" t="n">
-        <v>154.3741176470588</v>
+        <v>154.3643137254902</v>
       </c>
       <c r="Q39" t="n">
-        <v>115.7805882352941</v>
+        <v>115.7732352941176</v>
       </c>
       <c r="R39" t="n">
-        <v>115.7805882352941</v>
+        <v>115.7732352941176</v>
       </c>
       <c r="S39" t="n">
-        <v>192.9676470588235</v>
+        <v>192.9553921568627</v>
       </c>
     </row>
     <row r="40">
@@ -2649,58 +2649,58 @@
         <v>208</v>
       </c>
       <c r="B40" t="n">
-        <v>112.65</v>
+        <v>112.62</v>
       </c>
       <c r="C40" t="n">
-        <v>530.7399999999999</v>
+        <v>530.5999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>47.76659999999999</v>
+        <v>47.75399999999999</v>
       </c>
       <c r="E40" t="n">
-        <v>42.4592</v>
+        <v>42.44799999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>42.4592</v>
+        <v>42.44799999999999</v>
       </c>
       <c r="G40" t="n">
-        <v>37.15179999999999</v>
+        <v>37.142</v>
       </c>
       <c r="H40" t="n">
-        <v>31.84439999999999</v>
+        <v>31.83599999999999</v>
       </c>
       <c r="I40" t="n">
-        <v>31.84439999999999</v>
+        <v>31.83599999999999</v>
       </c>
       <c r="J40" t="n">
-        <v>37.15179999999999</v>
+        <v>37.142</v>
       </c>
       <c r="K40" t="n">
-        <v>31.84439999999999</v>
+        <v>31.83599999999999</v>
       </c>
       <c r="L40" t="n">
-        <v>31.84439999999999</v>
+        <v>31.83599999999999</v>
       </c>
       <c r="M40" t="n">
-        <v>42.4592</v>
+        <v>42.44799999999999</v>
       </c>
       <c r="N40" t="n">
-        <v>31.84439999999999</v>
+        <v>31.83599999999999</v>
       </c>
       <c r="O40" t="n">
-        <v>21.2296</v>
+        <v>21.224</v>
       </c>
       <c r="P40" t="n">
-        <v>21.2296</v>
+        <v>21.224</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.2296</v>
+        <v>21.224</v>
       </c>
       <c r="R40" t="n">
-        <v>15.9222</v>
+        <v>15.918</v>
       </c>
       <c r="S40" t="n">
-        <v>42.4592</v>
+        <v>42.44799999999999</v>
       </c>
     </row>
     <row r="41">
@@ -2708,58 +2708,58 @@
         <v>207</v>
       </c>
       <c r="B41" t="n">
-        <v>176.6</v>
+        <v>176.53</v>
       </c>
       <c r="C41" t="n">
-        <v>825.8199999999998</v>
+        <v>825.5199999999998</v>
       </c>
       <c r="D41" t="n">
-        <v>74.32379999999999</v>
+        <v>74.29679999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>66.06559999999999</v>
+        <v>66.04159999999999</v>
       </c>
       <c r="F41" t="n">
-        <v>66.06559999999999</v>
+        <v>66.04159999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>57.80739999999999</v>
+        <v>57.78639999999999</v>
       </c>
       <c r="H41" t="n">
-        <v>49.54919999999999</v>
+        <v>49.53119999999998</v>
       </c>
       <c r="I41" t="n">
-        <v>49.54919999999999</v>
+        <v>49.53119999999998</v>
       </c>
       <c r="J41" t="n">
-        <v>57.80739999999999</v>
+        <v>57.78639999999999</v>
       </c>
       <c r="K41" t="n">
-        <v>49.54919999999999</v>
+        <v>49.53119999999998</v>
       </c>
       <c r="L41" t="n">
-        <v>49.54919999999999</v>
+        <v>49.53119999999998</v>
       </c>
       <c r="M41" t="n">
-        <v>66.06559999999999</v>
+        <v>66.04159999999999</v>
       </c>
       <c r="N41" t="n">
-        <v>49.54919999999999</v>
+        <v>49.53119999999998</v>
       </c>
       <c r="O41" t="n">
-        <v>33.03279999999999</v>
+        <v>33.02079999999999</v>
       </c>
       <c r="P41" t="n">
-        <v>33.03279999999999</v>
+        <v>33.02079999999999</v>
       </c>
       <c r="Q41" t="n">
-        <v>33.03279999999999</v>
+        <v>33.02079999999999</v>
       </c>
       <c r="R41" t="n">
-        <v>24.7746</v>
+        <v>24.76559999999999</v>
       </c>
       <c r="S41" t="n">
-        <v>66.06559999999999</v>
+        <v>66.04159999999999</v>
       </c>
     </row>
     <row r="42">
@@ -2767,58 +2767,58 @@
         <v>2401</v>
       </c>
       <c r="B42" t="n">
-        <v>2237.42</v>
+        <v>2237.33</v>
       </c>
       <c r="C42" t="n">
-        <v>11250.53</v>
+        <v>11250.1</v>
       </c>
       <c r="D42" t="n">
-        <v>1225.305247524752</v>
+        <v>1225.258415841584</v>
       </c>
       <c r="E42" t="n">
-        <v>1225.305247524752</v>
+        <v>1225.258415841584</v>
       </c>
       <c r="F42" t="n">
-        <v>1113.913861386138</v>
+        <v>1113.871287128713</v>
       </c>
       <c r="G42" t="n">
-        <v>1002.522475247525</v>
+        <v>1002.484158415841</v>
       </c>
       <c r="H42" t="n">
-        <v>891.1310891089108</v>
+        <v>891.0970297029702</v>
       </c>
       <c r="I42" t="n">
-        <v>779.739702970297</v>
+        <v>779.709900990099</v>
       </c>
       <c r="J42" t="n">
-        <v>779.739702970297</v>
+        <v>779.709900990099</v>
       </c>
       <c r="K42" t="n">
-        <v>668.3483168316831</v>
+        <v>668.3227722772276</v>
       </c>
       <c r="L42" t="n">
-        <v>556.9569306930692</v>
+        <v>556.9356435643563</v>
       </c>
       <c r="M42" t="n">
-        <v>1225.305247524752</v>
+        <v>1225.258415841584</v>
       </c>
       <c r="N42" t="n">
-        <v>445.5655445544554</v>
+        <v>445.5485148514851</v>
       </c>
       <c r="O42" t="n">
-        <v>334.1741584158415</v>
+        <v>334.1613861386138</v>
       </c>
       <c r="P42" t="n">
-        <v>334.1741584158415</v>
+        <v>334.1613861386138</v>
       </c>
       <c r="Q42" t="n">
-        <v>222.7827722772277</v>
+        <v>222.7742574257425</v>
       </c>
       <c r="R42" t="n">
-        <v>222.7827722772277</v>
+        <v>222.7742574257425</v>
       </c>
       <c r="S42" t="n">
-        <v>222.7827722772277</v>
+        <v>222.7742574257425</v>
       </c>
     </row>
     <row r="43">
@@ -2826,58 +2826,58 @@
         <v>203</v>
       </c>
       <c r="B43" t="n">
-        <v>435.23</v>
+        <v>435.1</v>
       </c>
       <c r="C43" t="n">
-        <v>2048.599999999999</v>
+        <v>2048.05</v>
       </c>
       <c r="D43" t="n">
-        <v>184.374</v>
+        <v>184.3245</v>
       </c>
       <c r="E43" t="n">
-        <v>163.888</v>
+        <v>163.844</v>
       </c>
       <c r="F43" t="n">
-        <v>163.888</v>
+        <v>163.844</v>
       </c>
       <c r="G43" t="n">
-        <v>143.402</v>
+        <v>143.3635</v>
       </c>
       <c r="H43" t="n">
-        <v>122.916</v>
+        <v>122.883</v>
       </c>
       <c r="I43" t="n">
-        <v>122.916</v>
+        <v>122.883</v>
       </c>
       <c r="J43" t="n">
-        <v>143.402</v>
+        <v>143.3635</v>
       </c>
       <c r="K43" t="n">
-        <v>122.916</v>
+        <v>122.883</v>
       </c>
       <c r="L43" t="n">
-        <v>122.916</v>
+        <v>122.883</v>
       </c>
       <c r="M43" t="n">
-        <v>163.888</v>
+        <v>163.844</v>
       </c>
       <c r="N43" t="n">
-        <v>122.916</v>
+        <v>122.883</v>
       </c>
       <c r="O43" t="n">
-        <v>81.94399999999999</v>
+        <v>81.922</v>
       </c>
       <c r="P43" t="n">
-        <v>81.94399999999999</v>
+        <v>81.922</v>
       </c>
       <c r="Q43" t="n">
-        <v>81.94399999999999</v>
+        <v>81.922</v>
       </c>
       <c r="R43" t="n">
-        <v>61.45799999999998</v>
+        <v>61.44149999999999</v>
       </c>
       <c r="S43" t="n">
-        <v>163.888</v>
+        <v>163.844</v>
       </c>
     </row>
     <row r="44">
@@ -2885,58 +2885,58 @@
         <v>204</v>
       </c>
       <c r="B44" t="n">
-        <v>489.44</v>
+        <v>489.33</v>
       </c>
       <c r="C44" t="n">
-        <v>2310.98</v>
+        <v>2310.449999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>207.9881999999999</v>
+        <v>207.9405</v>
       </c>
       <c r="E44" t="n">
-        <v>184.8784</v>
+        <v>184.836</v>
       </c>
       <c r="F44" t="n">
-        <v>184.8784</v>
+        <v>184.836</v>
       </c>
       <c r="G44" t="n">
-        <v>161.7686</v>
+        <v>161.7315</v>
       </c>
       <c r="H44" t="n">
-        <v>138.6588</v>
+        <v>138.627</v>
       </c>
       <c r="I44" t="n">
-        <v>138.6588</v>
+        <v>138.627</v>
       </c>
       <c r="J44" t="n">
-        <v>161.7686</v>
+        <v>161.7315</v>
       </c>
       <c r="K44" t="n">
-        <v>138.6588</v>
+        <v>138.627</v>
       </c>
       <c r="L44" t="n">
-        <v>138.6588</v>
+        <v>138.627</v>
       </c>
       <c r="M44" t="n">
-        <v>184.8784</v>
+        <v>184.836</v>
       </c>
       <c r="N44" t="n">
-        <v>138.6588</v>
+        <v>138.627</v>
       </c>
       <c r="O44" t="n">
-        <v>92.43919999999999</v>
+        <v>92.41799999999998</v>
       </c>
       <c r="P44" t="n">
-        <v>92.43919999999999</v>
+        <v>92.41799999999998</v>
       </c>
       <c r="Q44" t="n">
-        <v>92.43919999999999</v>
+        <v>92.41799999999998</v>
       </c>
       <c r="R44" t="n">
-        <v>69.32939999999998</v>
+        <v>69.31349999999998</v>
       </c>
       <c r="S44" t="n">
-        <v>184.8784</v>
+        <v>184.836</v>
       </c>
     </row>
     <row r="45">
@@ -3062,58 +3062,58 @@
         <v>6506</v>
       </c>
       <c r="B47" t="n">
-        <v>1617.91</v>
+        <v>1617.87</v>
       </c>
       <c r="C47" t="n">
-        <v>7280.599999999999</v>
+        <v>7280.419999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>728.0599999999998</v>
+        <v>728.0419999999998</v>
       </c>
       <c r="E47" t="n">
-        <v>655.2539999999999</v>
+        <v>655.2377999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>655.2539999999999</v>
+        <v>655.2377999999999</v>
       </c>
       <c r="G47" t="n">
-        <v>582.448</v>
+        <v>582.4336</v>
       </c>
       <c r="H47" t="n">
-        <v>509.642</v>
+        <v>509.6294</v>
       </c>
       <c r="I47" t="n">
-        <v>509.642</v>
+        <v>509.6294</v>
       </c>
       <c r="J47" t="n">
-        <v>509.642</v>
+        <v>509.6294</v>
       </c>
       <c r="K47" t="n">
-        <v>509.642</v>
+        <v>509.6294</v>
       </c>
       <c r="L47" t="n">
-        <v>436.8359999999999</v>
+        <v>436.8251999999999</v>
       </c>
       <c r="M47" t="n">
-        <v>728.0599999999998</v>
+        <v>728.0419999999998</v>
       </c>
       <c r="N47" t="n">
-        <v>291.224</v>
+        <v>291.2168</v>
       </c>
       <c r="O47" t="n">
-        <v>291.224</v>
+        <v>291.2168</v>
       </c>
       <c r="P47" t="n">
-        <v>218.4179999999999</v>
+        <v>218.4125999999999</v>
       </c>
       <c r="Q47" t="n">
-        <v>218.4179999999999</v>
+        <v>218.4125999999999</v>
       </c>
       <c r="R47" t="n">
-        <v>145.612</v>
+        <v>145.6084</v>
       </c>
       <c r="S47" t="n">
-        <v>291.224</v>
+        <v>291.2168</v>
       </c>
     </row>
     <row r="48">
@@ -3357,58 +3357,58 @@
         <v>1102</v>
       </c>
       <c r="B52" t="n">
-        <v>1071.46</v>
+        <v>1071.42</v>
       </c>
       <c r="C52" t="n">
-        <v>4492.839999999999</v>
+        <v>4492.669999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>489.319207920792</v>
+        <v>489.3006930693068</v>
       </c>
       <c r="E52" t="n">
-        <v>489.319207920792</v>
+        <v>489.3006930693068</v>
       </c>
       <c r="F52" t="n">
-        <v>444.8356435643564</v>
+        <v>444.818811881188</v>
       </c>
       <c r="G52" t="n">
-        <v>355.8685148514851</v>
+        <v>355.8550495049504</v>
       </c>
       <c r="H52" t="n">
-        <v>311.3849504950495</v>
+        <v>311.3731683168317</v>
       </c>
       <c r="I52" t="n">
-        <v>311.3849504950495</v>
+        <v>311.3731683168317</v>
       </c>
       <c r="J52" t="n">
-        <v>311.3849504950495</v>
+        <v>311.3731683168317</v>
       </c>
       <c r="K52" t="n">
-        <v>266.9013861386138</v>
+        <v>266.8912871287128</v>
       </c>
       <c r="L52" t="n">
-        <v>222.4178217821782</v>
+        <v>222.409405940594</v>
       </c>
       <c r="M52" t="n">
-        <v>489.319207920792</v>
+        <v>489.3006930693068</v>
       </c>
       <c r="N52" t="n">
-        <v>177.9342574257425</v>
+        <v>177.9275247524752</v>
       </c>
       <c r="O52" t="n">
-        <v>133.4506930693069</v>
+        <v>133.4456435643564</v>
       </c>
       <c r="P52" t="n">
-        <v>133.4506930693069</v>
+        <v>133.4456435643564</v>
       </c>
       <c r="Q52" t="n">
-        <v>133.4506930693069</v>
+        <v>133.4456435643564</v>
       </c>
       <c r="R52" t="n">
-        <v>88.96712871287127</v>
+        <v>88.96376237623761</v>
       </c>
       <c r="S52" t="n">
-        <v>133.4506930693069</v>
+        <v>133.4456435643564</v>
       </c>
     </row>
     <row r="53">
@@ -3416,58 +3416,58 @@
         <v>1202</v>
       </c>
       <c r="B53" t="n">
-        <v>1034.38</v>
+        <v>1034.33</v>
       </c>
       <c r="C53" t="n">
-        <v>4352.289999999999</v>
+        <v>4352.059999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>439.6252525252524</v>
+        <v>439.6020202020201</v>
       </c>
       <c r="E53" t="n">
-        <v>439.6252525252524</v>
+        <v>439.6020202020201</v>
       </c>
       <c r="F53" t="n">
-        <v>395.6627272727271</v>
+        <v>395.6418181818181</v>
       </c>
       <c r="G53" t="n">
-        <v>351.7002020202019</v>
+        <v>351.6816161616161</v>
       </c>
       <c r="H53" t="n">
-        <v>307.7376767676767</v>
+        <v>307.7214141414141</v>
       </c>
       <c r="I53" t="n">
-        <v>307.7376767676767</v>
+        <v>307.7214141414141</v>
       </c>
       <c r="J53" t="n">
-        <v>307.7376767676767</v>
+        <v>307.7214141414141</v>
       </c>
       <c r="K53" t="n">
-        <v>263.7751515151514</v>
+        <v>263.7612121212121</v>
       </c>
       <c r="L53" t="n">
-        <v>219.8126262626262</v>
+        <v>219.8010101010101</v>
       </c>
       <c r="M53" t="n">
-        <v>439.6252525252524</v>
+        <v>439.6020202020201</v>
       </c>
       <c r="N53" t="n">
-        <v>175.850101010101</v>
+        <v>175.840808080808</v>
       </c>
       <c r="O53" t="n">
-        <v>131.8875757575757</v>
+        <v>131.880606060606</v>
       </c>
       <c r="P53" t="n">
-        <v>175.850101010101</v>
+        <v>175.840808080808</v>
       </c>
       <c r="Q53" t="n">
-        <v>131.8875757575757</v>
+        <v>131.880606060606</v>
       </c>
       <c r="R53" t="n">
-        <v>87.92505050505048</v>
+        <v>87.92040404040402</v>
       </c>
       <c r="S53" t="n">
-        <v>175.850101010101</v>
+        <v>175.840808080808</v>
       </c>
     </row>
     <row r="54">
@@ -3475,58 +3475,58 @@
         <v>1203</v>
       </c>
       <c r="B54" t="n">
-        <v>792.99</v>
+        <v>792.95</v>
       </c>
       <c r="C54" t="n">
-        <v>3335.249999999999</v>
+        <v>3335.089999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>336.8939393939393</v>
+        <v>336.8777777777777</v>
       </c>
       <c r="E54" t="n">
-        <v>336.8939393939393</v>
+        <v>336.8777777777777</v>
       </c>
       <c r="F54" t="n">
-        <v>303.2045454545453</v>
+        <v>303.1899999999999</v>
       </c>
       <c r="G54" t="n">
-        <v>269.5151515151514</v>
+        <v>269.5022222222221</v>
       </c>
       <c r="H54" t="n">
-        <v>235.8257575757575</v>
+        <v>235.8144444444444</v>
       </c>
       <c r="I54" t="n">
-        <v>235.8257575757575</v>
+        <v>235.8144444444444</v>
       </c>
       <c r="J54" t="n">
-        <v>235.8257575757575</v>
+        <v>235.8144444444444</v>
       </c>
       <c r="K54" t="n">
-        <v>202.1363636363636</v>
+        <v>202.1266666666666</v>
       </c>
       <c r="L54" t="n">
-        <v>168.4469696969697</v>
+        <v>168.4388888888888</v>
       </c>
       <c r="M54" t="n">
-        <v>336.8939393939393</v>
+        <v>336.8777777777777</v>
       </c>
       <c r="N54" t="n">
-        <v>134.7575757575757</v>
+        <v>134.7511111111111</v>
       </c>
       <c r="O54" t="n">
-        <v>101.0681818181818</v>
+        <v>101.0633333333333</v>
       </c>
       <c r="P54" t="n">
-        <v>134.7575757575757</v>
+        <v>134.7511111111111</v>
       </c>
       <c r="Q54" t="n">
-        <v>101.0681818181818</v>
+        <v>101.0633333333333</v>
       </c>
       <c r="R54" t="n">
-        <v>67.37878787878786</v>
+        <v>67.37555555555554</v>
       </c>
       <c r="S54" t="n">
-        <v>134.7575757575757</v>
+        <v>134.7511111111111</v>
       </c>
     </row>
     <row r="55">
@@ -3652,58 +3652,58 @@
         <v>2302</v>
       </c>
       <c r="B57" t="n">
-        <v>1765.11</v>
+        <v>1764.61</v>
       </c>
       <c r="C57" t="n">
-        <v>7628.019999999998</v>
+        <v>7625.799999999997</v>
       </c>
       <c r="D57" t="n">
-        <v>786.3938144329895</v>
+        <v>786.164948453608</v>
       </c>
       <c r="E57" t="n">
-        <v>786.3938144329895</v>
+        <v>786.164948453608</v>
       </c>
       <c r="F57" t="n">
-        <v>707.7544329896905</v>
+        <v>707.5484536082472</v>
       </c>
       <c r="G57" t="n">
-        <v>629.1150515463916</v>
+        <v>628.9319587628864</v>
       </c>
       <c r="H57" t="n">
-        <v>550.4756701030926</v>
+        <v>550.3154639175257</v>
       </c>
       <c r="I57" t="n">
-        <v>550.4756701030926</v>
+        <v>550.3154639175257</v>
       </c>
       <c r="J57" t="n">
-        <v>550.4756701030926</v>
+        <v>550.3154639175257</v>
       </c>
       <c r="K57" t="n">
-        <v>471.8362886597937</v>
+        <v>471.6989690721648</v>
       </c>
       <c r="L57" t="n">
-        <v>393.1969072164948</v>
+        <v>393.082474226804</v>
       </c>
       <c r="M57" t="n">
-        <v>786.3938144329895</v>
+        <v>786.164948453608</v>
       </c>
       <c r="N57" t="n">
-        <v>314.5575257731958</v>
+        <v>314.4659793814432</v>
       </c>
       <c r="O57" t="n">
-        <v>235.9181443298968</v>
+        <v>235.8494845360824</v>
       </c>
       <c r="P57" t="n">
-        <v>235.9181443298968</v>
+        <v>235.8494845360824</v>
       </c>
       <c r="Q57" t="n">
-        <v>235.9181443298968</v>
+        <v>235.8494845360824</v>
       </c>
       <c r="R57" t="n">
-        <v>157.2787628865979</v>
+        <v>157.2329896907216</v>
       </c>
       <c r="S57" t="n">
-        <v>235.9181443298968</v>
+        <v>235.8494845360824</v>
       </c>
     </row>
     <row r="58">
@@ -3888,58 +3888,58 @@
         <v>1204</v>
       </c>
       <c r="B61" t="n">
-        <v>1831.02</v>
+        <v>1830.98</v>
       </c>
       <c r="C61" t="n">
-        <v>7685.299999999998</v>
+        <v>7685.129999999997</v>
       </c>
       <c r="D61" t="n">
-        <v>776.2929292929291</v>
+        <v>776.2757575757573</v>
       </c>
       <c r="E61" t="n">
-        <v>776.2929292929291</v>
+        <v>776.2757575757573</v>
       </c>
       <c r="F61" t="n">
-        <v>698.6636363636361</v>
+        <v>698.6481818181816</v>
       </c>
       <c r="G61" t="n">
-        <v>621.0343434343433</v>
+        <v>621.0206060606059</v>
       </c>
       <c r="H61" t="n">
-        <v>543.4050505050504</v>
+        <v>543.3930303030302</v>
       </c>
       <c r="I61" t="n">
-        <v>543.4050505050504</v>
+        <v>543.3930303030302</v>
       </c>
       <c r="J61" t="n">
-        <v>543.4050505050504</v>
+        <v>543.3930303030302</v>
       </c>
       <c r="K61" t="n">
-        <v>465.7757575757574</v>
+        <v>465.7654545454544</v>
       </c>
       <c r="L61" t="n">
-        <v>388.1464646464646</v>
+        <v>388.1378787878787</v>
       </c>
       <c r="M61" t="n">
-        <v>776.2929292929291</v>
+        <v>776.2757575757573</v>
       </c>
       <c r="N61" t="n">
-        <v>310.5171717171717</v>
+        <v>310.510303030303</v>
       </c>
       <c r="O61" t="n">
-        <v>232.8878787878787</v>
+        <v>232.8827272727272</v>
       </c>
       <c r="P61" t="n">
-        <v>310.5171717171717</v>
+        <v>310.510303030303</v>
       </c>
       <c r="Q61" t="n">
-        <v>232.8878787878787</v>
+        <v>232.8827272727272</v>
       </c>
       <c r="R61" t="n">
-        <v>155.2585858585858</v>
+        <v>155.2551515151515</v>
       </c>
       <c r="S61" t="n">
-        <v>310.5171717171717</v>
+        <v>310.510303030303</v>
       </c>
     </row>
     <row r="62">
@@ -4355,58 +4355,58 @@
         <v>1304</v>
       </c>
       <c r="B70" t="n">
-        <v>860.0700000000001</v>
+        <v>860.02</v>
       </c>
       <c r="C70" t="n">
-        <v>3870.329999999999</v>
+        <v>3870.069999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>379.4441176470588</v>
+        <v>379.4186274509804</v>
       </c>
       <c r="E70" t="n">
-        <v>341.4997058823528</v>
+        <v>341.4767647058823</v>
       </c>
       <c r="F70" t="n">
-        <v>341.4997058823528</v>
+        <v>341.4767647058823</v>
       </c>
       <c r="G70" t="n">
-        <v>303.555294117647</v>
+        <v>303.5349019607843</v>
       </c>
       <c r="H70" t="n">
-        <v>265.6108823529411</v>
+        <v>265.5930392156862</v>
       </c>
       <c r="I70" t="n">
-        <v>265.6108823529411</v>
+        <v>265.5930392156862</v>
       </c>
       <c r="J70" t="n">
-        <v>265.6108823529411</v>
+        <v>265.5930392156862</v>
       </c>
       <c r="K70" t="n">
-        <v>227.6664705882352</v>
+        <v>227.6511764705882</v>
       </c>
       <c r="L70" t="n">
-        <v>227.6664705882352</v>
+        <v>227.6511764705882</v>
       </c>
       <c r="M70" t="n">
-        <v>341.4997058823528</v>
+        <v>341.4767647058823</v>
       </c>
       <c r="N70" t="n">
-        <v>189.7220588235294</v>
+        <v>189.7093137254902</v>
       </c>
       <c r="O70" t="n">
-        <v>151.7776470588235</v>
+        <v>151.7674509803921</v>
       </c>
       <c r="P70" t="n">
-        <v>151.7776470588235</v>
+        <v>151.7674509803921</v>
       </c>
       <c r="Q70" t="n">
-        <v>113.8332352941176</v>
+        <v>113.8255882352941</v>
       </c>
       <c r="R70" t="n">
-        <v>113.8332352941176</v>
+        <v>113.8255882352941</v>
       </c>
       <c r="S70" t="n">
-        <v>189.7220588235294</v>
+        <v>189.7093137254902</v>
       </c>
     </row>
     <row r="71">
@@ -4414,58 +4414,58 @@
         <v>1306</v>
       </c>
       <c r="B71" t="n">
-        <v>783.54</v>
+        <v>783.47</v>
       </c>
       <c r="C71" t="n">
-        <v>3525.939999999999</v>
+        <v>3525.63</v>
       </c>
       <c r="D71" t="n">
-        <v>345.6803921568627</v>
+        <v>345.65</v>
       </c>
       <c r="E71" t="n">
-        <v>311.1123529411764</v>
+        <v>311.0849999999999</v>
       </c>
       <c r="F71" t="n">
-        <v>311.1123529411764</v>
+        <v>311.0849999999999</v>
       </c>
       <c r="G71" t="n">
-        <v>276.5443137254902</v>
+        <v>276.52</v>
       </c>
       <c r="H71" t="n">
-        <v>241.9762745098039</v>
+        <v>241.955</v>
       </c>
       <c r="I71" t="n">
-        <v>241.9762745098039</v>
+        <v>241.955</v>
       </c>
       <c r="J71" t="n">
-        <v>241.9762745098039</v>
+        <v>241.955</v>
       </c>
       <c r="K71" t="n">
-        <v>207.4082352941176</v>
+        <v>207.39</v>
       </c>
       <c r="L71" t="n">
-        <v>207.4082352941176</v>
+        <v>207.39</v>
       </c>
       <c r="M71" t="n">
-        <v>311.1123529411764</v>
+        <v>311.0849999999999</v>
       </c>
       <c r="N71" t="n">
-        <v>172.8401960784313</v>
+        <v>172.825</v>
       </c>
       <c r="O71" t="n">
-        <v>138.2721568627451</v>
+        <v>138.26</v>
       </c>
       <c r="P71" t="n">
-        <v>138.2721568627451</v>
+        <v>138.26</v>
       </c>
       <c r="Q71" t="n">
-        <v>103.7041176470588</v>
+        <v>103.695</v>
       </c>
       <c r="R71" t="n">
-        <v>103.7041176470588</v>
+        <v>103.695</v>
       </c>
       <c r="S71" t="n">
-        <v>172.8401960784313</v>
+        <v>172.825</v>
       </c>
     </row>
     <row r="72">
@@ -4473,58 +4473,58 @@
         <v>2402</v>
       </c>
       <c r="B72" t="n">
-        <v>3818.09</v>
+        <v>3816.08</v>
       </c>
       <c r="C72" t="n">
-        <v>18069.59999999999</v>
+        <v>18060.57</v>
       </c>
       <c r="D72" t="n">
-        <v>1967.976237623762</v>
+        <v>1966.992772277227</v>
       </c>
       <c r="E72" t="n">
-        <v>1967.976237623762</v>
+        <v>1966.992772277227</v>
       </c>
       <c r="F72" t="n">
-        <v>1789.069306930693</v>
+        <v>1788.175247524752</v>
       </c>
       <c r="G72" t="n">
-        <v>1610.162376237623</v>
+        <v>1609.357722772277</v>
       </c>
       <c r="H72" t="n">
-        <v>1431.255445544554</v>
+        <v>1430.540198019802</v>
       </c>
       <c r="I72" t="n">
-        <v>1252.348514851485</v>
+        <v>1251.722673267327</v>
       </c>
       <c r="J72" t="n">
-        <v>1252.348514851485</v>
+        <v>1251.722673267327</v>
       </c>
       <c r="K72" t="n">
-        <v>1073.441584158415</v>
+        <v>1072.905148514851</v>
       </c>
       <c r="L72" t="n">
-        <v>894.5346534653463</v>
+        <v>894.087623762376</v>
       </c>
       <c r="M72" t="n">
-        <v>1967.976237623762</v>
+        <v>1966.992772277227</v>
       </c>
       <c r="N72" t="n">
-        <v>715.627722772277</v>
+        <v>715.2700990099008</v>
       </c>
       <c r="O72" t="n">
-        <v>536.7207920792077</v>
+        <v>536.4525742574256</v>
       </c>
       <c r="P72" t="n">
-        <v>536.7207920792077</v>
+        <v>536.4525742574256</v>
       </c>
       <c r="Q72" t="n">
-        <v>357.8138613861385</v>
+        <v>357.6350495049504</v>
       </c>
       <c r="R72" t="n">
-        <v>357.8138613861385</v>
+        <v>357.6350495049504</v>
       </c>
       <c r="S72" t="n">
-        <v>357.8138613861385</v>
+        <v>357.6350495049504</v>
       </c>
     </row>
     <row r="73">
@@ -4532,58 +4532,58 @@
         <v>6611</v>
       </c>
       <c r="B73" t="n">
-        <v>365.77</v>
+        <v>365.43</v>
       </c>
       <c r="C73" t="n">
-        <v>1645.95</v>
+        <v>1644.45</v>
       </c>
       <c r="D73" t="n">
-        <v>164.595</v>
+        <v>164.445</v>
       </c>
       <c r="E73" t="n">
-        <v>148.1355</v>
+        <v>148.0005</v>
       </c>
       <c r="F73" t="n">
-        <v>148.1355</v>
+        <v>148.0005</v>
       </c>
       <c r="G73" t="n">
-        <v>131.676</v>
+        <v>131.556</v>
       </c>
       <c r="H73" t="n">
-        <v>115.2165</v>
+        <v>115.1115</v>
       </c>
       <c r="I73" t="n">
-        <v>115.2165</v>
+        <v>115.1115</v>
       </c>
       <c r="J73" t="n">
-        <v>115.2165</v>
+        <v>115.1115</v>
       </c>
       <c r="K73" t="n">
-        <v>98.75699999999998</v>
+        <v>98.66699999999997</v>
       </c>
       <c r="L73" t="n">
-        <v>98.75699999999998</v>
+        <v>98.66699999999997</v>
       </c>
       <c r="M73" t="n">
-        <v>164.595</v>
+        <v>164.445</v>
       </c>
       <c r="N73" t="n">
-        <v>65.83799999999999</v>
+        <v>65.77799999999999</v>
       </c>
       <c r="O73" t="n">
-        <v>65.83799999999999</v>
+        <v>65.77799999999999</v>
       </c>
       <c r="P73" t="n">
-        <v>65.83799999999999</v>
+        <v>65.77799999999999</v>
       </c>
       <c r="Q73" t="n">
-        <v>49.37849999999999</v>
+        <v>49.33349999999999</v>
       </c>
       <c r="R73" t="n">
-        <v>32.919</v>
+        <v>32.889</v>
       </c>
       <c r="S73" t="n">
-        <v>65.83799999999999</v>
+        <v>65.77799999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4650,58 +4650,58 @@
         <v>3606</v>
       </c>
       <c r="B75" t="n">
-        <v>1015.69</v>
+        <v>1015.48</v>
       </c>
       <c r="C75" t="n">
-        <v>4159.529999999999</v>
+        <v>4158.58</v>
       </c>
       <c r="D75" t="n">
-        <v>411.8346534653464</v>
+        <v>411.7405940594059</v>
       </c>
       <c r="E75" t="n">
-        <v>370.6511881188118</v>
+        <v>370.5665346534653</v>
       </c>
       <c r="F75" t="n">
-        <v>370.6511881188118</v>
+        <v>370.5665346534653</v>
       </c>
       <c r="G75" t="n">
-        <v>329.4677227722772</v>
+        <v>329.3924752475247</v>
       </c>
       <c r="H75" t="n">
-        <v>288.2842574257425</v>
+        <v>288.2184158415841</v>
       </c>
       <c r="I75" t="n">
-        <v>288.2842574257425</v>
+        <v>288.2184158415841</v>
       </c>
       <c r="J75" t="n">
-        <v>288.2842574257425</v>
+        <v>288.2184158415841</v>
       </c>
       <c r="K75" t="n">
-        <v>288.2842574257425</v>
+        <v>288.2184158415841</v>
       </c>
       <c r="L75" t="n">
-        <v>205.9173267326732</v>
+        <v>205.8702970297029</v>
       </c>
       <c r="M75" t="n">
-        <v>411.8346534653464</v>
+        <v>411.7405940594059</v>
       </c>
       <c r="N75" t="n">
-        <v>164.7338613861386</v>
+        <v>164.6962376237624</v>
       </c>
       <c r="O75" t="n">
-        <v>123.5503960396039</v>
+        <v>123.5221782178217</v>
       </c>
       <c r="P75" t="n">
-        <v>164.7338613861386</v>
+        <v>164.6962376237624</v>
       </c>
       <c r="Q75" t="n">
-        <v>164.7338613861386</v>
+        <v>164.6962376237624</v>
       </c>
       <c r="R75" t="n">
-        <v>123.5503960396039</v>
+        <v>123.5221782178217</v>
       </c>
       <c r="S75" t="n">
-        <v>164.7338613861386</v>
+        <v>164.6962376237624</v>
       </c>
     </row>
     <row r="76">
@@ -4709,58 +4709,58 @@
         <v>3604</v>
       </c>
       <c r="B76" t="n">
-        <v>1060.39</v>
+        <v>1060.18</v>
       </c>
       <c r="C76" t="n">
-        <v>4333.279999999999</v>
+        <v>4332.369999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>429.0376237623761</v>
+        <v>428.9475247524751</v>
       </c>
       <c r="E76" t="n">
-        <v>386.1338613861385</v>
+        <v>386.0527722772276</v>
       </c>
       <c r="F76" t="n">
-        <v>386.1338613861385</v>
+        <v>386.0527722772276</v>
       </c>
       <c r="G76" t="n">
-        <v>343.2300990099009</v>
+        <v>343.1580198019801</v>
       </c>
       <c r="H76" t="n">
-        <v>300.3263366336633</v>
+        <v>300.2632673267327</v>
       </c>
       <c r="I76" t="n">
-        <v>300.3263366336633</v>
+        <v>300.2632673267327</v>
       </c>
       <c r="J76" t="n">
-        <v>300.3263366336633</v>
+        <v>300.2632673267327</v>
       </c>
       <c r="K76" t="n">
-        <v>300.3263366336633</v>
+        <v>300.2632673267327</v>
       </c>
       <c r="L76" t="n">
-        <v>214.518811881188</v>
+        <v>214.4737623762376</v>
       </c>
       <c r="M76" t="n">
-        <v>429.0376237623761</v>
+        <v>428.9475247524751</v>
       </c>
       <c r="N76" t="n">
-        <v>171.6150495049505</v>
+        <v>171.5790099009901</v>
       </c>
       <c r="O76" t="n">
-        <v>128.7112871287128</v>
+        <v>128.6842574257425</v>
       </c>
       <c r="P76" t="n">
-        <v>171.6150495049505</v>
+        <v>171.5790099009901</v>
       </c>
       <c r="Q76" t="n">
-        <v>171.6150495049505</v>
+        <v>171.5790099009901</v>
       </c>
       <c r="R76" t="n">
-        <v>128.7112871287128</v>
+        <v>128.6842574257425</v>
       </c>
       <c r="S76" t="n">
-        <v>171.6150495049505</v>
+        <v>171.5790099009901</v>
       </c>
     </row>
     <row r="77">
@@ -4768,58 +4768,58 @@
         <v>3609</v>
       </c>
       <c r="B77" t="n">
-        <v>544.49</v>
+        <v>544.3200000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>2264.52</v>
+        <v>2263.75</v>
       </c>
       <c r="D77" t="n">
-        <v>224.209900990099</v>
+        <v>224.1336633663366</v>
       </c>
       <c r="E77" t="n">
-        <v>201.7889108910891</v>
+        <v>201.7202970297029</v>
       </c>
       <c r="F77" t="n">
-        <v>201.7889108910891</v>
+        <v>201.7202970297029</v>
       </c>
       <c r="G77" t="n">
-        <v>179.3679207920792</v>
+        <v>179.3069306930693</v>
       </c>
       <c r="H77" t="n">
-        <v>156.9469306930693</v>
+        <v>156.8935643564356</v>
       </c>
       <c r="I77" t="n">
-        <v>156.9469306930693</v>
+        <v>156.8935643564356</v>
       </c>
       <c r="J77" t="n">
-        <v>156.9469306930693</v>
+        <v>156.8935643564356</v>
       </c>
       <c r="K77" t="n">
-        <v>156.9469306930693</v>
+        <v>156.8935643564356</v>
       </c>
       <c r="L77" t="n">
-        <v>112.1049504950495</v>
+        <v>112.0668316831683</v>
       </c>
       <c r="M77" t="n">
-        <v>224.209900990099</v>
+        <v>224.1336633663366</v>
       </c>
       <c r="N77" t="n">
-        <v>89.68396039603959</v>
+        <v>89.65346534653465</v>
       </c>
       <c r="O77" t="n">
-        <v>67.26297029702968</v>
+        <v>67.24009900990097</v>
       </c>
       <c r="P77" t="n">
-        <v>89.68396039603959</v>
+        <v>89.65346534653465</v>
       </c>
       <c r="Q77" t="n">
-        <v>89.68396039603959</v>
+        <v>89.65346534653465</v>
       </c>
       <c r="R77" t="n">
-        <v>67.26297029702968</v>
+        <v>67.24009900990097</v>
       </c>
       <c r="S77" t="n">
-        <v>89.68396039603959</v>
+        <v>89.65346534653465</v>
       </c>
     </row>
     <row r="78">
@@ -4886,58 +4886,58 @@
         <v>3601</v>
       </c>
       <c r="B79" t="n">
-        <v>204.23</v>
+        <v>204.22</v>
       </c>
       <c r="C79" t="n">
-        <v>813.9799999999998</v>
+        <v>813.9599999999998</v>
       </c>
       <c r="D79" t="n">
-        <v>80.59207920792078</v>
+        <v>80.59009900990098</v>
       </c>
       <c r="E79" t="n">
-        <v>72.5328712871287</v>
+        <v>72.53108910891088</v>
       </c>
       <c r="F79" t="n">
-        <v>72.5328712871287</v>
+        <v>72.53108910891088</v>
       </c>
       <c r="G79" t="n">
-        <v>64.47366336633662</v>
+        <v>64.47207920792079</v>
       </c>
       <c r="H79" t="n">
-        <v>56.41445544554455</v>
+        <v>56.41306930693069</v>
       </c>
       <c r="I79" t="n">
-        <v>56.41445544554455</v>
+        <v>56.41306930693069</v>
       </c>
       <c r="J79" t="n">
-        <v>56.41445544554455</v>
+        <v>56.41306930693069</v>
       </c>
       <c r="K79" t="n">
-        <v>56.41445544554455</v>
+        <v>56.41306930693069</v>
       </c>
       <c r="L79" t="n">
-        <v>40.29603960396039</v>
+        <v>40.29504950495049</v>
       </c>
       <c r="M79" t="n">
-        <v>80.59207920792078</v>
+        <v>80.59009900990098</v>
       </c>
       <c r="N79" t="n">
-        <v>32.23683168316831</v>
+        <v>32.23603960396039</v>
       </c>
       <c r="O79" t="n">
-        <v>24.17762376237623</v>
+        <v>24.17702970297029</v>
       </c>
       <c r="P79" t="n">
-        <v>32.23683168316831</v>
+        <v>32.23603960396039</v>
       </c>
       <c r="Q79" t="n">
-        <v>32.23683168316831</v>
+        <v>32.23603960396039</v>
       </c>
       <c r="R79" t="n">
-        <v>24.17762376237623</v>
+        <v>24.17702970297029</v>
       </c>
       <c r="S79" t="n">
-        <v>32.23683168316831</v>
+        <v>32.23603960396039</v>
       </c>
     </row>
     <row r="80">
@@ -4945,58 +4945,58 @@
         <v>3602</v>
       </c>
       <c r="B80" t="n">
-        <v>1234.54</v>
+        <v>1234.44</v>
       </c>
       <c r="C80" t="n">
-        <v>4967.929999999998</v>
+        <v>4967.479999999998</v>
       </c>
       <c r="D80" t="n">
-        <v>491.8742574257425</v>
+        <v>491.8297029702969</v>
       </c>
       <c r="E80" t="n">
-        <v>442.6868316831682</v>
+        <v>442.6467326732672</v>
       </c>
       <c r="F80" t="n">
-        <v>442.6868316831682</v>
+        <v>442.6467326732672</v>
       </c>
       <c r="G80" t="n">
-        <v>393.499405940594</v>
+        <v>393.4637623762375</v>
       </c>
       <c r="H80" t="n">
-        <v>344.3119801980198</v>
+        <v>344.2807920792079</v>
       </c>
       <c r="I80" t="n">
-        <v>344.3119801980198</v>
+        <v>344.2807920792079</v>
       </c>
       <c r="J80" t="n">
-        <v>344.3119801980198</v>
+        <v>344.2807920792079</v>
       </c>
       <c r="K80" t="n">
-        <v>344.3119801980198</v>
+        <v>344.2807920792079</v>
       </c>
       <c r="L80" t="n">
-        <v>245.9371287128712</v>
+        <v>245.9148514851484</v>
       </c>
       <c r="M80" t="n">
-        <v>491.8742574257425</v>
+        <v>491.8297029702969</v>
       </c>
       <c r="N80" t="n">
-        <v>196.749702970297</v>
+        <v>196.7318811881188</v>
       </c>
       <c r="O80" t="n">
-        <v>147.5622772277227</v>
+        <v>147.5489108910891</v>
       </c>
       <c r="P80" t="n">
-        <v>196.749702970297</v>
+        <v>196.7318811881188</v>
       </c>
       <c r="Q80" t="n">
-        <v>196.749702970297</v>
+        <v>196.7318811881188</v>
       </c>
       <c r="R80" t="n">
-        <v>147.5622772277227</v>
+        <v>147.5489108910891</v>
       </c>
       <c r="S80" t="n">
-        <v>196.749702970297</v>
+        <v>196.7318811881188</v>
       </c>
     </row>
     <row r="81">
@@ -5004,58 +5004,58 @@
         <v>3610</v>
       </c>
       <c r="B81" t="n">
-        <v>864.46</v>
+        <v>864.23</v>
       </c>
       <c r="C81" t="n">
-        <v>3571.719999999999</v>
+        <v>3570.67</v>
       </c>
       <c r="D81" t="n">
-        <v>353.6356435643563</v>
+        <v>353.5316831683168</v>
       </c>
       <c r="E81" t="n">
-        <v>318.2720792079207</v>
+        <v>318.1785148514851</v>
       </c>
       <c r="F81" t="n">
-        <v>318.2720792079207</v>
+        <v>318.1785148514851</v>
       </c>
       <c r="G81" t="n">
-        <v>282.9085148514851</v>
+        <v>282.8253465346534</v>
       </c>
       <c r="H81" t="n">
-        <v>247.5449504950495</v>
+        <v>247.4721782178217</v>
       </c>
       <c r="I81" t="n">
-        <v>247.5449504950495</v>
+        <v>247.4721782178217</v>
       </c>
       <c r="J81" t="n">
-        <v>247.5449504950495</v>
+        <v>247.4721782178217</v>
       </c>
       <c r="K81" t="n">
-        <v>247.5449504950495</v>
+        <v>247.4721782178217</v>
       </c>
       <c r="L81" t="n">
-        <v>176.8178217821782</v>
+        <v>176.7658415841584</v>
       </c>
       <c r="M81" t="n">
-        <v>353.6356435643563</v>
+        <v>353.5316831683168</v>
       </c>
       <c r="N81" t="n">
-        <v>141.4542574257426</v>
+        <v>141.4126732673267</v>
       </c>
       <c r="O81" t="n">
-        <v>106.0906930693069</v>
+        <v>106.059504950495</v>
       </c>
       <c r="P81" t="n">
-        <v>141.4542574257426</v>
+        <v>141.4126732673267</v>
       </c>
       <c r="Q81" t="n">
-        <v>141.4542574257426</v>
+        <v>141.4126732673267</v>
       </c>
       <c r="R81" t="n">
-        <v>106.0906930693069</v>
+        <v>106.059504950495</v>
       </c>
       <c r="S81" t="n">
-        <v>141.4542574257426</v>
+        <v>141.4126732673267</v>
       </c>
     </row>
     <row r="82">
@@ -5063,58 +5063,58 @@
         <v>3603</v>
       </c>
       <c r="B82" t="n">
-        <v>844.7</v>
+        <v>844.47</v>
       </c>
       <c r="C82" t="n">
-        <v>3494.9</v>
+        <v>3493.84</v>
       </c>
       <c r="D82" t="n">
-        <v>346.029702970297</v>
+        <v>345.9247524752474</v>
       </c>
       <c r="E82" t="n">
-        <v>311.4267326732673</v>
+        <v>311.3322772277227</v>
       </c>
       <c r="F82" t="n">
-        <v>311.4267326732673</v>
+        <v>311.3322772277227</v>
       </c>
       <c r="G82" t="n">
-        <v>276.8237623762376</v>
+        <v>276.739801980198</v>
       </c>
       <c r="H82" t="n">
-        <v>242.2207920792079</v>
+        <v>242.1473267326733</v>
       </c>
       <c r="I82" t="n">
-        <v>242.2207920792079</v>
+        <v>242.1473267326733</v>
       </c>
       <c r="J82" t="n">
-        <v>242.2207920792079</v>
+        <v>242.1473267326733</v>
       </c>
       <c r="K82" t="n">
-        <v>242.2207920792079</v>
+        <v>242.1473267326733</v>
       </c>
       <c r="L82" t="n">
-        <v>173.0148514851485</v>
+        <v>172.9623762376237</v>
       </c>
       <c r="M82" t="n">
-        <v>346.029702970297</v>
+        <v>345.9247524752474</v>
       </c>
       <c r="N82" t="n">
-        <v>138.4118811881188</v>
+        <v>138.369900990099</v>
       </c>
       <c r="O82" t="n">
-        <v>103.8089108910891</v>
+        <v>103.7774257425742</v>
       </c>
       <c r="P82" t="n">
-        <v>138.4118811881188</v>
+        <v>138.369900990099</v>
       </c>
       <c r="Q82" t="n">
-        <v>138.4118811881188</v>
+        <v>138.369900990099</v>
       </c>
       <c r="R82" t="n">
-        <v>103.8089108910891</v>
+        <v>103.7774257425742</v>
       </c>
       <c r="S82" t="n">
-        <v>138.4118811881188</v>
+        <v>138.369900990099</v>
       </c>
     </row>
     <row r="83">
@@ -5122,58 +5122,58 @@
         <v>2501</v>
       </c>
       <c r="B83" t="n">
-        <v>3626.39</v>
+        <v>3626.17</v>
       </c>
       <c r="C83" t="n">
-        <v>16138.75</v>
+        <v>16137.74</v>
       </c>
       <c r="D83" t="n">
-        <v>1757.685643564356</v>
+        <v>1757.575643564356</v>
       </c>
       <c r="E83" t="n">
-        <v>1597.89603960396</v>
+        <v>1597.79603960396</v>
       </c>
       <c r="F83" t="n">
-        <v>1597.89603960396</v>
+        <v>1597.79603960396</v>
       </c>
       <c r="G83" t="n">
-        <v>1438.106435643564</v>
+        <v>1438.016435643564</v>
       </c>
       <c r="H83" t="n">
-        <v>1278.316831683168</v>
+        <v>1278.236831683168</v>
       </c>
       <c r="I83" t="n">
-        <v>1118.527227722772</v>
+        <v>1118.457227722772</v>
       </c>
       <c r="J83" t="n">
-        <v>1118.527227722772</v>
+        <v>1118.457227722772</v>
       </c>
       <c r="K83" t="n">
-        <v>958.737623762376</v>
+        <v>958.6776237623759</v>
       </c>
       <c r="L83" t="n">
-        <v>798.94801980198</v>
+        <v>798.89801980198</v>
       </c>
       <c r="M83" t="n">
-        <v>1757.685643564356</v>
+        <v>1757.575643564356</v>
       </c>
       <c r="N83" t="n">
-        <v>639.1584158415841</v>
+        <v>639.118415841584</v>
       </c>
       <c r="O83" t="n">
-        <v>479.368811881188</v>
+        <v>479.338811881188</v>
       </c>
       <c r="P83" t="n">
-        <v>479.368811881188</v>
+        <v>479.338811881188</v>
       </c>
       <c r="Q83" t="n">
-        <v>479.368811881188</v>
+        <v>479.338811881188</v>
       </c>
       <c r="R83" t="n">
-        <v>319.579207920792</v>
+        <v>319.559207920792</v>
       </c>
       <c r="S83" t="n">
-        <v>319.579207920792</v>
+        <v>319.559207920792</v>
       </c>
     </row>
     <row r="84">
@@ -5181,58 +5181,58 @@
         <v>2504</v>
       </c>
       <c r="B84" t="n">
-        <v>1908.65</v>
+        <v>1908.43</v>
       </c>
       <c r="C84" t="n">
-        <v>8041.419999999997</v>
+        <v>8040.409999999997</v>
       </c>
       <c r="D84" t="n">
-        <v>812.2646464646463</v>
+        <v>812.162626262626</v>
       </c>
       <c r="E84" t="n">
-        <v>812.2646464646463</v>
+        <v>812.162626262626</v>
       </c>
       <c r="F84" t="n">
-        <v>731.0381818181816</v>
+        <v>730.9463636363633</v>
       </c>
       <c r="G84" t="n">
-        <v>649.811717171717</v>
+        <v>649.7301010101008</v>
       </c>
       <c r="H84" t="n">
-        <v>568.5852525252524</v>
+        <v>568.5138383838382</v>
       </c>
       <c r="I84" t="n">
-        <v>568.5852525252524</v>
+        <v>568.5138383838382</v>
       </c>
       <c r="J84" t="n">
-        <v>568.5852525252524</v>
+        <v>568.5138383838382</v>
       </c>
       <c r="K84" t="n">
-        <v>568.5852525252524</v>
+        <v>568.5138383838382</v>
       </c>
       <c r="L84" t="n">
-        <v>406.1323232323231</v>
+        <v>406.081313131313</v>
       </c>
       <c r="M84" t="n">
-        <v>812.2646464646463</v>
+        <v>812.162626262626</v>
       </c>
       <c r="N84" t="n">
-        <v>324.9058585858585</v>
+        <v>324.8650505050504</v>
       </c>
       <c r="O84" t="n">
-        <v>243.6793939393939</v>
+        <v>243.6487878787878</v>
       </c>
       <c r="P84" t="n">
-        <v>324.9058585858585</v>
+        <v>324.8650505050504</v>
       </c>
       <c r="Q84" t="n">
-        <v>243.6793939393939</v>
+        <v>243.6487878787878</v>
       </c>
       <c r="R84" t="n">
-        <v>162.4529292929292</v>
+        <v>162.4325252525252</v>
       </c>
       <c r="S84" t="n">
-        <v>243.6793939393939</v>
+        <v>243.6487878787878</v>
       </c>
     </row>
     <row r="85">
@@ -5240,58 +5240,58 @@
         <v>304</v>
       </c>
       <c r="B85" t="n">
-        <v>1060.62</v>
+        <v>1060.55</v>
       </c>
       <c r="C85" t="n">
-        <v>4803.78</v>
+        <v>4803.489999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>436.7072727272726</v>
+        <v>436.6809090909089</v>
       </c>
       <c r="E85" t="n">
-        <v>388.1842424242423</v>
+        <v>388.160808080808</v>
       </c>
       <c r="F85" t="n">
-        <v>339.6612121212121</v>
+        <v>339.640707070707</v>
       </c>
       <c r="G85" t="n">
-        <v>339.6612121212121</v>
+        <v>339.640707070707</v>
       </c>
       <c r="H85" t="n">
-        <v>291.1381818181817</v>
+        <v>291.120606060606</v>
       </c>
       <c r="I85" t="n">
-        <v>291.1381818181817</v>
+        <v>291.120606060606</v>
       </c>
       <c r="J85" t="n">
-        <v>291.1381818181817</v>
+        <v>291.120606060606</v>
       </c>
       <c r="K85" t="n">
-        <v>291.1381818181817</v>
+        <v>291.120606060606</v>
       </c>
       <c r="L85" t="n">
-        <v>291.1381818181817</v>
+        <v>291.120606060606</v>
       </c>
       <c r="M85" t="n">
-        <v>388.1842424242423</v>
+        <v>388.160808080808</v>
       </c>
       <c r="N85" t="n">
-        <v>242.6151515151515</v>
+        <v>242.600505050505</v>
       </c>
       <c r="O85" t="n">
-        <v>242.6151515151515</v>
+        <v>242.600505050505</v>
       </c>
       <c r="P85" t="n">
-        <v>242.6151515151515</v>
+        <v>242.600505050505</v>
       </c>
       <c r="Q85" t="n">
-        <v>242.6151515151515</v>
+        <v>242.600505050505</v>
       </c>
       <c r="R85" t="n">
-        <v>145.5690909090909</v>
+        <v>145.560303030303</v>
       </c>
       <c r="S85" t="n">
-        <v>339.6612121212121</v>
+        <v>339.640707070707</v>
       </c>
     </row>
     <row r="86">
@@ -5299,58 +5299,58 @@
         <v>303</v>
       </c>
       <c r="B86" t="n">
-        <v>588.24</v>
+        <v>579.66</v>
       </c>
       <c r="C86" t="n">
-        <v>2947.099999999999</v>
+        <v>2629.489999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>262.6128712871287</v>
+        <v>234.3109900990098</v>
       </c>
       <c r="E86" t="n">
-        <v>233.4336633663366</v>
+        <v>208.2764356435643</v>
       </c>
       <c r="F86" t="n">
-        <v>233.4336633663366</v>
+        <v>208.2764356435643</v>
       </c>
       <c r="G86" t="n">
-        <v>204.2544554455445</v>
+        <v>182.2418811881188</v>
       </c>
       <c r="H86" t="n">
-        <v>175.0752475247524</v>
+        <v>156.2073267326732</v>
       </c>
       <c r="I86" t="n">
-        <v>175.0752475247524</v>
+        <v>156.2073267326732</v>
       </c>
       <c r="J86" t="n">
-        <v>175.0752475247524</v>
+        <v>156.2073267326732</v>
       </c>
       <c r="K86" t="n">
-        <v>204.2544554455445</v>
+        <v>182.2418811881188</v>
       </c>
       <c r="L86" t="n">
-        <v>145.8960396039604</v>
+        <v>130.1727722772277</v>
       </c>
       <c r="M86" t="n">
-        <v>233.4336633663366</v>
+        <v>208.2764356435643</v>
       </c>
       <c r="N86" t="n">
-        <v>175.0752475247524</v>
+        <v>156.2073267326732</v>
       </c>
       <c r="O86" t="n">
-        <v>145.8960396039604</v>
+        <v>130.1727722772277</v>
       </c>
       <c r="P86" t="n">
-        <v>145.8960396039604</v>
+        <v>130.1727722772277</v>
       </c>
       <c r="Q86" t="n">
-        <v>116.7168316831683</v>
+        <v>104.1382178217821</v>
       </c>
       <c r="R86" t="n">
-        <v>116.7168316831683</v>
+        <v>104.1382178217821</v>
       </c>
       <c r="S86" t="n">
-        <v>204.2544554455445</v>
+        <v>182.2418811881188</v>
       </c>
     </row>
     <row r="87">
@@ -5535,58 +5535,58 @@
         <v>201</v>
       </c>
       <c r="B90" t="n">
-        <v>20.96</v>
+        <v>20.95</v>
       </c>
       <c r="C90" t="n">
-        <v>94.34</v>
+        <v>94.25</v>
       </c>
       <c r="D90" t="n">
-        <v>11.3208</v>
+        <v>11.31</v>
       </c>
       <c r="E90" t="n">
-        <v>11.3208</v>
+        <v>11.31</v>
       </c>
       <c r="F90" t="n">
-        <v>10.3774</v>
+        <v>10.3675</v>
       </c>
       <c r="G90" t="n">
-        <v>9.434000000000001</v>
+        <v>9.425000000000001</v>
       </c>
       <c r="H90" t="n">
-        <v>7.5472</v>
+        <v>7.54</v>
       </c>
       <c r="I90" t="n">
-        <v>6.603800000000001</v>
+        <v>6.597500000000001</v>
       </c>
       <c r="J90" t="n">
-        <v>4.717000000000001</v>
+        <v>4.7125</v>
       </c>
       <c r="K90" t="n">
-        <v>4.717000000000001</v>
+        <v>4.7125</v>
       </c>
       <c r="L90" t="n">
-        <v>4.717000000000001</v>
+        <v>4.7125</v>
       </c>
       <c r="M90" t="n">
-        <v>11.3208</v>
+        <v>11.31</v>
       </c>
       <c r="N90" t="n">
-        <v>3.7736</v>
+        <v>3.77</v>
       </c>
       <c r="O90" t="n">
-        <v>2.8302</v>
+        <v>2.8275</v>
       </c>
       <c r="P90" t="n">
-        <v>1.8868</v>
+        <v>1.885</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.8868</v>
+        <v>1.885</v>
       </c>
       <c r="R90" t="n">
-        <v>0.9434</v>
+        <v>0.9425</v>
       </c>
       <c r="S90" t="n">
-        <v>0.9434</v>
+        <v>0.9425</v>
       </c>
     </row>
     <row r="91">
@@ -5594,58 +5594,58 @@
         <v>6608</v>
       </c>
       <c r="B91" t="n">
-        <v>372.53</v>
+        <v>372.18</v>
       </c>
       <c r="C91" t="n">
-        <v>1676.37</v>
+        <v>1674.8</v>
       </c>
       <c r="D91" t="n">
-        <v>201.1644</v>
+        <v>200.976</v>
       </c>
       <c r="E91" t="n">
-        <v>201.1644</v>
+        <v>200.976</v>
       </c>
       <c r="F91" t="n">
-        <v>184.4007</v>
+        <v>184.228</v>
       </c>
       <c r="G91" t="n">
-        <v>167.637</v>
+        <v>167.48</v>
       </c>
       <c r="H91" t="n">
-        <v>134.1096</v>
+        <v>133.984</v>
       </c>
       <c r="I91" t="n">
-        <v>117.3459</v>
+        <v>117.236</v>
       </c>
       <c r="J91" t="n">
-        <v>83.8185</v>
+        <v>83.74000000000001</v>
       </c>
       <c r="K91" t="n">
-        <v>83.8185</v>
+        <v>83.74000000000001</v>
       </c>
       <c r="L91" t="n">
-        <v>83.8185</v>
+        <v>83.74000000000001</v>
       </c>
       <c r="M91" t="n">
-        <v>201.1644</v>
+        <v>200.976</v>
       </c>
       <c r="N91" t="n">
-        <v>67.0548</v>
+        <v>66.992</v>
       </c>
       <c r="O91" t="n">
-        <v>50.29109999999999</v>
+        <v>50.244</v>
       </c>
       <c r="P91" t="n">
-        <v>33.5274</v>
+        <v>33.496</v>
       </c>
       <c r="Q91" t="n">
-        <v>33.5274</v>
+        <v>33.496</v>
       </c>
       <c r="R91" t="n">
-        <v>16.7637</v>
+        <v>16.748</v>
       </c>
       <c r="S91" t="n">
-        <v>16.7637</v>
+        <v>16.748</v>
       </c>
     </row>
     <row r="92">

--- a/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2040.xlsx
+++ b/create_forecast_basic/future/arab_and_palestinian/Intermediates/taz_Arab_Palestinian_2040.xlsx
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>27694.12850708579</v>
+        <v>28110.19648774186</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>11738.63802274251</v>
+        <v>11133.6431204399</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>12575.26820082905</v>
+        <v>12764.19512247559</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
